--- a/weekday_averages.xlsx
+++ b/weekday_averages.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87.76666666666667</v>
+        <v>88.17582417582418</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90.30434782608695</v>
+        <v>90.36170212765957</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>93.08988764044943</v>
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>92.32183908045977</v>
+        <v>91.40449438202248</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>102.75</v>
+        <v>103.1702127659574</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85.09677419354838</v>
+        <v>85.07368421052631</v>
       </c>
     </row>
     <row r="11">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>85.08988764044943</v>
+        <v>85.69230769230769</v>
       </c>
     </row>
   </sheetData>
